--- a/biology/Botanique/Oncospermatinae/Oncospermatinae.xlsx
+++ b/biology/Botanique/Oncospermatinae/Oncospermatinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oncospermatinae est une sous-tribu de plantes à fleurs appartenant à la sous-famille des Arecoideae au sein de la famille des palmiers (Arecaceae). 
 </t>
@@ -511,14 +523,51 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous-famille des Arecoideae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Oncospermatinae  [1],[2]
+Sous-tribu des Oncospermatinae  ,
 Cette sous-tribu de 4 genres originaire soit du Sri-Lanka aux Philippines pour Oncosperma , ou, pour les autres,  dans l’Océan Indien, coté ouest, entre Seychelles et Mascareignes. 
-Genres
-Oncosperma 		5 espèces		d'origine du Sri Lanka aux Philippines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oncospermatinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oncospermatinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Oncosperma 		5 espèces		d'origine du Sri Lanka aux Philippines.
 Deckenia  		1 espèce		endémique des Seychelles.
 Acanthophoenix  	3 espèces		endémiques des Mascareignes
 Tectiphiala   	1 espèce		endémique des Mascareignes.</t>
